--- a/Karthikhrp/RE_calc_test/Data/Input/input.xlsx
+++ b/Karthikhrp/RE_calc_test/Data/Input/input.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R.Harapanahalli\Documents\UiPath\RE_calc_test\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\vajrang\Week1Calculator_Reframework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25AE299-369B-46BD-BB2C-C06FE4FE5464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8872B9-BC25-43BC-97D1-BC1AE163CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>first</t>
   </si>
@@ -44,16 +36,13 @@
     <t>operand</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
 </sst>
 </file>
@@ -371,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,63 +379,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
-        <f>+C3</f>
-        <v>+</v>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://www.youtube.com/watch?v=4bTTO_ie58o&amp;list=PLFd2UxUMjZNfUqyCCB_zs0cI-7nEO4T8E" xr:uid="{812E8542-1EE5-40F4-A1C6-69F699F45AA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>